--- a/relatorio_gerencial_admin_por_colab.xlsx
+++ b/relatorio_gerencial_admin_por_colab.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,19 +456,19 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Não</t>
+          <t>Sim</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>2022-11-25</t>
+          <t>2022-12-16</t>
         </is>
       </c>
       <c r="D2" t="n">
-        <v>80</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>10</v>
+        <v>105</v>
       </c>
     </row>
     <row r="3">
@@ -484,14 +484,37 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>2022-11-25</t>
+          <t>2022-12-16</t>
         </is>
       </c>
       <c r="D3" t="n">
-        <v>80</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>10</v>
+        <v>105</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Guilherme</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Não</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>2022-12-03</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
+        <v>0</v>
+      </c>
+      <c r="E4" t="n">
+        <v>105</v>
       </c>
     </row>
   </sheetData>
